--- a/static/data/PHM-EVD-linelist-2017-10-27.xlsx
+++ b/static/data/PHM-EVD-linelist-2017-10-27.xlsx
@@ -26,25 +26,31 @@
     <t>age</t>
   </si>
   <si>
-    <t>c61339</t>
-  </si>
-  <si>
-    <t>b8551b</t>
-  </si>
-  <si>
-    <t>1b6cc2</t>
+    <t>39e9dc</t>
+  </si>
+  <si>
+    <t>664549</t>
+  </si>
+  <si>
+    <t>b4d8aa</t>
+  </si>
+  <si>
+    <t>51883d</t>
   </si>
   <si>
     <t>947e40</t>
   </si>
   <si>
+    <t>9aa197</t>
+  </si>
+  <si>
     <t>e4b0a2</t>
   </si>
   <si>
     <t>af0ac0</t>
   </si>
   <si>
-    <t>d53618</t>
+    <t>185911</t>
   </si>
   <si>
     <t>601d2e</t>
@@ -54,12 +60,6 @@
   </si>
   <si>
     <t>e399b1</t>
-  </si>
-  <si>
-    <t>3d8cf7</t>
-  </si>
-  <si>
-    <t>cca468</t>
   </si>
   <si>
     <t>female</t>
@@ -139,13 +139,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n" s="2">
-        <v>43021.0</v>
+        <v>43018.0</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>64.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="3">
@@ -153,13 +153,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n" s="2">
-        <v>43027.0</v>
+        <v>43024.0</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" t="n">
-        <v>23.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="4">
@@ -167,13 +167,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="n" s="2">
-        <v>43028.0</v>
+        <v>43025.0</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>51.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="5">
@@ -181,7 +181,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="n" s="2">
-        <v>43029.0</v>
+        <v>43026.0</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
@@ -195,13 +195,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="n" s="2">
-        <v>43031.0</v>
+        <v>43028.0</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" t="n">
-        <v>32.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="7">
@@ -209,13 +209,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="n" s="2">
-        <v>43031.0</v>
+        <v>43028.0</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
       </c>
       <c r="D7" t="n">
-        <v>54.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="8">
@@ -223,13 +223,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="n" s="2">
-        <v>43032.0</v>
+        <v>43029.0</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="n">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="9">
@@ -237,13 +237,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="n" s="2">
-        <v>43032.0</v>
+        <v>43029.0</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
       <c r="D9" t="n">
-        <v>23.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="10">
@@ -251,13 +251,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="n" s="2">
-        <v>43032.0</v>
+        <v>43029.0</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" t="n">
-        <v>26.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="11">
@@ -265,13 +265,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="n" s="2">
-        <v>43033.0</v>
+        <v>43030.0</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D11" t="n">
-        <v>18.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="12">
@@ -279,13 +279,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="n" s="2">
-        <v>43033.0</v>
+        <v>43030.0</v>
       </c>
       <c r="C12" t="s">
         <v>16</v>
       </c>
       <c r="D12" t="n">
-        <v>16.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="13">
@@ -293,13 +293,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="n" s="2">
-        <v>43034.0</v>
+        <v>43031.0</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13" t="n">
-        <v>27.0</v>
+        <v>23.0</v>
       </c>
     </row>
   </sheetData>
